--- a/Emissions/emission_factors/CO2e/Modal_Shift_Vector.xlsx
+++ b/Emissions/emission_factors/CO2e/Modal_Shift_Vector.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Emissions/emission_factors/CO2e/Modal_Shift_Vector.xlsx
+++ b/Emissions/emission_factors/CO2e/Modal_Shift_Vector.xlsx
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
